--- a/reverseprimer-v3_33.xlsx
+++ b/reverseprimer-v3_33.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_33" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R3073-AACCATCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCATCGAAGTCTCGTGGGCTCGG</t>
+    <t>R3073-AAGGTAGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTAGCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R3074-TAGAAGGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAAGGACCGTCTCGTGGGCTCGG</t>
+    <t>R3074-ATCGACTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGACTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R3075-TCACGTGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACGTGGTAGTCTCGTGGGCTCGG</t>
+    <t>R3075-AGTGTACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTACGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R3076-CTGTAGGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTAGGATGGTCTCGTGGGCTCGG</t>
+    <t>R3076-ACAAGAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGAACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R3077-TACTCTCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCTCAGTGTCTCGTGGGCTCGG</t>
+    <t>R3077-CTAGACAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGACAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R3078-TAGTGCTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGCTCACGTCTCGTGGGCTCGG</t>
+    <t>R3078-AACTCTACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCTACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R3079-CCACCATCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCACCATCAAGTCTCGTGGGCTCGG</t>
+    <t>R3079-CCTACGTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTACGTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R3080-GCTCTGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCTGAGAAGTCTCGTGGGCTCGG</t>
+    <t>R3080-GACATCGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACATCGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R3081-TGTGATGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGATGGTCGTCTCGTGGGCTCGG</t>
+    <t>R3081-GGTGTTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGTTCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R3082-TCTTCACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTCACATGGTCTCGTGGGCTCGG</t>
+    <t>R3082-AGAAGCTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R3083-AGAAGCACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCACGAGTCTCGTGGGCTCGG</t>
+    <t>R3083-AAGAGAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGAGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R3084-ACCTTCAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTTCAGAGGTCTCGTGGGCTCGG</t>
+    <t>R3084-CAGATCCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGATCCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R3085-TTCACTAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACTAGAGGTCTCGTGGGCTCGG</t>
+    <t>R3085-TGTCACACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCACACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R3086-GTCTCATGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTCATGGAGTCTCGTGGGCTCGG</t>
+    <t>R3086-AACGTCACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTCACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R3087-CAGCTACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGCTACAACGTCTCGTGGGCTCGG</t>
+    <t>R3087-ATCATCTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCATCTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R3088-CGACAAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGACAAGCTTGTCTCGTGGGCTCGG</t>
+    <t>R3088-TACAACTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAACTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R3089-CCATGTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCATGTGTGAGTCTCGTGGGCTCGG</t>
+    <t>R3089-CATCCTACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCCTACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R3090-TGTCCTAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCCTAGAGGTCTCGTGGGCTCGG</t>
+    <t>R3090-TACGTGCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTGCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R3091-TCTCGTACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTACGTGTCTCGTGGGCTCGG</t>
+    <t>R3091-ACGTGCTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTGCTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R3092-TTCGTTGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTTGAGCGTCTCGTGGGCTCGG</t>
+    <t>R3092-GTACCAACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACCAACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R3093-ATGGTTGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTTGGAGGTCTCGTGGGCTCGG</t>
+    <t>R3093-GATGACAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGACAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R3094-ACGACCAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGACCAGTAGTCTCGTGGGCTCGG</t>
+    <t>R3094-TTCCTGCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTGCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R3095-AAGAACACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAACACTCGTCTCGTGGGCTCGG</t>
+    <t>R3095-CGTCAACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCAACAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R3096-GGTGCAACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGCAACATGTCTCGTGGGCTCGG</t>
+    <t>R3096-TCGTACTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTACTTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R3097-TAGACTACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACTACTCGTCTCGTGGGCTCGG</t>
+    <t>R3097-TTGCAGCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCAGCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R3098-TTGGTAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTAGCAAGTCTCGTGGGCTCGG</t>
+    <t>R3098-GGTCAGTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTCAGTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R3099-CATCTGTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTGTAGTGTCTCGTGGGCTCGG</t>
+    <t>R3099-GATGTCTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTCTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R3100-TGGAACTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAACTTCCGTCTCGTGGGCTCGG</t>
+    <t>R3100-AAGACGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACGAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R3101-TCTGTAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R3101-TTGCTCAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCTCAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R3102-TCTGCTGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGCTGTAGGTCTCGTGGGCTCGG</t>
+    <t>R3102-CATCGTCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCGTCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R3103-ACGTAGTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTAGTAGGGTCTCGTGGGCTCGG</t>
+    <t>R3103-CACTACACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTACACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R3104-TGTAGTCTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGTCTGGGTCTCGTGGGCTCGG</t>
+    <t>R3104-TCCTGTAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTGTAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R3105-GGACTACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACTACTCAGTCTCGTGGGCTCGG</t>
+    <t>R3105-GTACAAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACAAGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R3106-ACAAGGACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGGACATGTCTCGTGGGCTCGG</t>
+    <t>R3106-TTGCTGTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCTGTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R3107-TGTGACATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGACATCAGTCTCGTGGGCTCGG</t>
+    <t>R3107-GACTCATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTCATCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R3108-ACTAGCAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGCAAGAGTCTCGTGGGCTCGG</t>
+    <t>R3108-CACAACTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACAACTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R3109-CAAGACGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGACGTACGTCTCGTGGGCTCGG</t>
+    <t>R3109-CTTGCTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGCTGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R3110-CATCTCAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTCAACTGTCTCGTGGGCTCGG</t>
+    <t>R3110-TGCAGATCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAGATCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R3111-GGTAGAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTAGAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R3111-TGGTCACTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTCACTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R3112-CAGTCACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTCACAGTGTCTCGTGGGCTCGG</t>
+    <t>R3112-TTGACTTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACTTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R3113-TACAAGTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAAGTGCAGTCTCGTGGGCTCGG</t>
+    <t>R3113-CTAGATCGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGATCGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R3114-GTAGTTCTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTTCTCGGTCTCGTGGGCTCGG</t>
+    <t>R3114-AGCTCTGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTCTGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R3115-AACTGAACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGAACGAGTCTCGTGGGCTCGG</t>
+    <t>R3115-CAGAAGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGAAGTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R3116-GAGACTAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGACTAGATGTCTCGTGGGCTCGG</t>
+    <t>R3116-ACTGCTACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGCTACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R3117-TTGCTACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCTACGATGTCTCGTGGGCTCGG</t>
+    <t>R3117-TGTGAGCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGAGCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R3118-TGCTCCATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTCCATCTGTCTCGTGGGCTCGG</t>
+    <t>R3118-AACAGCATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGCATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R3119-CGTCACTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCACTGATGTCTCGTGGGCTCGG</t>
+    <t>R3119-TCTACAGGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACAGGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R3120-GACATGTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACATGTTGCGTCTCGTGGGCTCGG</t>
+    <t>R3120-GTCTAGCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTAGCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R3121-GTTCGATCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCGATCGAGTCTCGTGGGCTCGG</t>
+    <t>R3121-GTTGATCCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGATCCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R3122-TCAGCTGCAA</t>
+    <t>R3122-GGTACAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACAGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R3123-AAGGAGCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGAGCTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R3124-TCCACACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCACACTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R3125-CACATCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACATCATCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R3126-AACCACGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCACGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R3127-AGAAGTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGTGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R3128-CAGACGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGACGAACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R3129-TCACACCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACACCTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R3130-AGATCCTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCCTTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R3131-TCATGAGGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATGAGGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R3132-TCTCCAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCCAGCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R3133-TACTCTGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCTGCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R3134-GTTCAGACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCAGACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R3135-TCAGCTGCAA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTCAGCTGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R3123-GATGGTTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGGTTGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R3124-TAGGTTGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTTGGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R3125-CTGGTAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGGTAGGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R3126-GATCAGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCAGACAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R3127-TTGGACCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGACCAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R3128-GATCCTTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCTTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R3129-AAGTCCAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCCAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R3130-TCGTGTGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTGTGCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R3131-CAAGCTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGCTCATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R3132-ATGCACAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCACAAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R3133-AAGTGCACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGCACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R3134-ATCTCGACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCGACTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R3135-GTAGTCTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTCTTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R3136-CGTACAACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTACAACCTGTCTCGTGGGCTCGG</t>
+    <t>R3136-TGGAGCTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAGCTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R3137-ATCTCCAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCCAGGAGTCTCGTGGGCTCGG</t>
+    <t>R3137-GTACGAACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACGAACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R3138-GATCGAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCGAGGTAGTCTCGTGGGCTCGG</t>
+    <t>R3138-CCTTGTGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTGTGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R3139-CTACTCACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTCACGTGTCTCGTGGGCTCGG</t>
+    <t>R3139-ACTGTGACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTGACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R3140-ACAGAGTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGAGTCAGGTCTCGTGGGCTCGG</t>
+    <t>R3140-GAACGTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACGTGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R3141-TACGAGACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGAGACAAGTCTCGTGGGCTCGG</t>
+    <t>R3141-ACACATGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACATGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R3142-AGTACACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACACACAGTCTCGTGGGCTCGG</t>
+    <t>R3142-AGACGAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACGAGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R3143-GTGTCATGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCATGAGGTCTCGTGGGCTCGG</t>
+    <t>R3143-GAGAGCTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAGCTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R3144-TACGAGGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGAGGATGGTCTCGTGGGCTCGG</t>
+    <t>R3144-GATGTTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTTCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R3145-CTTGAGGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGAGGTGTGTCTCGTGGGCTCGG</t>
+    <t>R3145-AACAGGAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGGAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R3146-ACTCTAGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTAGGATGTCTCGTGGGCTCGG</t>
+    <t>R3146-AGACAGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACAGAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R3147-GAACACCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACACCTAGGTCTCGTGGGCTCGG</t>
+    <t>R3147-TGCTTCTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTTCTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R3148-TTGGTCGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTCGTTGGTCTCGTGGGCTCGG</t>
+    <t>R3148-TAGAACTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAACTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R3149-TGACAGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAGACACGTCTCGTGGGCTCGG</t>
+    <t>R3149-CTCCAAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCCAAGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R3150-GTCACTACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACTACTTGTCTCGTGGGCTCGG</t>
+    <t>R3150-TCAGTGGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTGGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R3151-ACAGAACAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGAACAGCGTCTCGTGGGCTCGG</t>
+    <t>R3151-TCTCATGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCATGTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R3152-GACATCACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACATCACAAGTCTCGTGGGCTCGG</t>
+    <t>R3152-GTTGTGACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R3153-GGTACTGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTACTGATGGTCTCGTGGGCTCGG</t>
+    <t>R3153-ACACGTACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACGTACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R3154-CGACCTACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGACCTACTAGTCTCGTGGGCTCGG</t>
+    <t>R3154-TCTACGTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACGTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R3155-GGAAGAAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAAGAAGATGTCTCGTGGGCTCGG</t>
+    <t>R3155-CTGATGAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGATGAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R3156-GCAGAACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAGAACCTTGTCTCGTGGGCTCGG</t>
+    <t>R3156-AGCTCTTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTCTTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R3157-ATGGAACGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGAACGACGTCTCGTGGGCTCGG</t>
+    <t>R3157-AACAGTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGTCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R3158-ATCATCCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCATCCACTGTCTCGTGGGCTCGG</t>
+    <t>R3158-CTGCTAGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGCTAGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R3159-ACTAGGAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGGAGGTGTCTCGTGGGCTCGG</t>
+    <t>R3159-GTGTCTTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R3160-ACTTGACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTGACAGAGTCTCGTGGGCTCGG</t>
+    <t>R3160-ACACAAGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAAGTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R3161-ATCTTGGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTTGGATCGTCTCGTGGGCTCGG</t>
+    <t>R3161-AAGTACGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTACGAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R3162-CGTCATGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCATGAGTGTCTCGTGGGCTCGG</t>
+    <t>R3162-GCAGACTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAGACTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R3163-CGATCACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATCACAAGGTCTCGTGGGCTCGG</t>
+    <t>R3163-TAGCTGAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R3164-ACTGAGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGAGAGATGTCTCGTGGGCTCGG</t>
+    <t>R3164-TCAGTCAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTCAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R3165-TAGCAACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCAACCTTGTCTCGTGGGCTCGG</t>
+    <t>R3165-GACCATGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACCATGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R3166-GATCTGTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCTGTGGAGTCTCGTGGGCTCGG</t>
+    <t>R3166-AACCTGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTGTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R3167-GGTCTCTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCTCTTGAGTCTCGTGGGCTCGG</t>
+    <t>R3167-CCTGAACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTGAACAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R3168-AAGAGGTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGGTCTAGTCTCGTGGGCTCGG</t>
+    <t>R3168-CATGGAAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGGAAGATGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
